--- a/功能接口验证.xlsx
+++ b/功能接口验证.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>界面</t>
   </si>
@@ -87,6 +87,10 @@
 3、对知识库里的excel表进行增删，重命名，查找（在一个知识库中通过文件名查找）</t>
   </si>
   <si>
+    <t>1、管理员展示列表接口通过
+2、管理员预览接口测试通过</t>
+  </si>
+  <si>
     <t>审核管理</t>
   </si>
   <si>
@@ -125,6 +129,10 @@
 3、对知识库里的excel表进行增删，重命名，查找（在一个知识库中通过文件名查找）</t>
   </si>
   <si>
+    <t>1、教师增加，重命名、删除、查找接口通过
+2、教师预览接口测试通过</t>
+  </si>
+  <si>
     <t>搜索管理</t>
   </si>
   <si>
@@ -142,10 +150,16 @@
 学生可以直接点击查看案例内容。</t>
   </si>
   <si>
+    <t>1、学生搜索接口测试通过</t>
+  </si>
+  <si>
     <t>文件查看管理</t>
   </si>
   <si>
     <t>1、学生只能查看本班级知识库中的excel表（点击excel文件能预览其中案例信息）</t>
+  </si>
+  <si>
+    <t>1、学生预览接口测试通过2、下载文件接口通过</t>
   </si>
   <si>
     <t>文件上传管理</t>
@@ -156,7 +170,8 @@
 3、学生上传excel表给管理员进行审核</t>
   </si>
   <si>
-    <t>1、学生上传到班级知识库文件接口测试通过</t>
+    <t xml:space="preserve">1、学生上传到班级知识库文件接口测试通过
+</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1248,42 +1263,44 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" ht="70" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" ht="56" customHeight="1" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="56" customHeight="1" spans="1:4">
@@ -1292,64 +1309,70 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" ht="42" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">

--- a/功能接口验证.xlsx
+++ b/功能接口验证.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>界面</t>
   </si>
@@ -112,6 +112,9 @@
     <t>1、设置大模型API
 2、设置大模型参数：系统提示词，显示引文，相似度阈值，top-N值
 3、增加新对话，选择历史对话</t>
+  </si>
+  <si>
+    <t>1、测试了增加新对话，并成功对话接口测试通过</t>
   </si>
   <si>
     <t>嵌入管理</t>
@@ -1183,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1289,18 +1292,20 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="56" customHeight="1" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="56" customHeight="1" spans="1:4">
@@ -1309,27 +1314,27 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1337,42 +1342,44 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" ht="42" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
